--- a/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/WINGLA/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/WINGLA/1/report-checklist.xlsx
@@ -774,9 +774,6 @@
 Dettaglio: …</t>
   </si>
   <si>
-    <t>5acabf93072a4591</t>
-  </si>
-  <si>
     <t>Non è contemplato l' invio al FSE senza il valore ConfidentialityCode</t>
   </si>
   <si>
@@ -814,6 +811,9 @@
   </si>
   <si>
     <t>Non è contemplato l' invio al FSE  senza La valorizzazione della sezione  :"ClinicalDocument/component/structuredBody/component/section/component/section/entry/act/entryRelationship/organizer/[@classCode="CLUSTER”]/component/organizer/[@classCode=”BATTERY”]/code" è</t>
+  </si>
+  <si>
+    <t>43f6d37950e161ce</t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4279,13 +4279,13 @@
         <v>68</v>
       </c>
       <c r="F16" s="23">
-        <v>45063</v>
+        <v>45076</v>
       </c>
       <c r="G16" s="33">
-        <v>0.48357638888888888</v>
+        <v>0.40016203703703707</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>162</v>
@@ -4378,7 +4378,7 @@
         <v>146</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -4416,7 +4416,7 @@
         <v>146</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -4454,7 +4454,7 @@
         <v>146</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -4492,7 +4492,7 @@
         <v>146</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -4530,7 +4530,7 @@
         <v>146</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -4568,7 +4568,7 @@
         <v>146</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -4606,7 +4606,7 @@
         <v>146</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -4644,7 +4644,7 @@
         <v>146</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -4681,10 +4681,10 @@
         <v>0.44621527777777775</v>
       </c>
       <c r="H26" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>174</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>175</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>71</v>
@@ -4703,7 +4703,7 @@
         <v>146</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -4736,7 +4736,7 @@
         <v>146</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -4774,7 +4774,7 @@
         <v>146</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>

--- a/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/WINGLA/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/WINGLA/1/report-checklist.xlsx
@@ -731,39 +731,6 @@
     <t>subject_application_version: 1</t>
   </si>
   <si>
-    <t>2e71a4783d7e5aa7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.170901.4.4.ac1e81616aa6f9c6ba3efed6a54988803348d0db533c26077db215230b2801f9.e2066eae43^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6b5c28e5b6d731d7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.170901.4.4.f671262e56b733267513b328024cca434be60bb93d69122a1e18afea4e0dbacf.ae64db7b42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c5d70d46fd50d322</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.170901.4.4.3b3d310b73811c0f44332f1b56bfeeb95fa421623b4767676ea1413ee7393cb2.e2ec2480d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5797d92a1706cbe0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.170901.4.4.814e037ac92c64f1f3acdeeffdc55a41ab1afdbe0f5f229780fddcdedea55c05.247a6e27e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7be26b3f179b9bfc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.170901.4.4.1981f9173e79c59cd9becf6f3b0424c7ed18e79d88a1b7c90a199d6b75a60d24.65b6ffdb6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a5d7b96b4f28a2bc</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -798,12 +765,6 @@
     <t>Non è contemplato l' invio al FSE senza la presenza del tag "ClinicalDocument/inFulfillmentOf/order/id"</t>
   </si>
   <si>
-    <t>2c34a19f2f1cdd89</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.170901.4.4.f3b4129db89a9af14bc03c84a0e015197bf98e119d9e3d64e1856f8d41ec4699.6084ca3788^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Personale della struttura devo correggere la codifica degli esami e rilanciare l' operazione di invio al fascicolo sanitario</t>
   </si>
   <si>
@@ -813,7 +774,46 @@
     <t>Non è contemplato l' invio al FSE  senza La valorizzazione della sezione  :"ClinicalDocument/component/structuredBody/component/section/component/section/entry/act/entryRelationship/organizer/[@classCode="CLUSTER”]/component/organizer/[@classCode=”BATTERY”]/code" è</t>
   </si>
   <si>
-    <t>43f6d37950e161ce</t>
+    <t>74e1f9318e00a671</t>
+  </si>
+  <si>
+    <t>5e63ecb81d8321c5</t>
+  </si>
+  <si>
+    <t>77ae06b3c2382495</t>
+  </si>
+  <si>
+    <t>a30e2923cf410294</t>
+  </si>
+  <si>
+    <t>006306b83e6d4fd0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.170901.4.4.31489a93a37a8774dd1bddf7ee44edc297fa5990d0ce90e9aec7e4c35451d7af.66705531f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.170901.4.4.16e12cefa1155204edc131cc9bbea392e3bc47d7c3ee1d9b490aa84e9fc46b2f.a19ebc629e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.170901.4.4.2f90429790b02180ca67dab4d58787b6b9ff7c24f3c85c3cb9102339b9373b39.4f46a2ec0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.170901.4.4.eafb32f6d161cc4fe77a03413028904ab9c76f462ce57b0ec00c75530b9135ab.86a8322259^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.170901.4.4.29c65b4a5c097babfc07bd553c44148eb12af9ea878b9184ff6f1d8324727400.5a55930b3f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f2bf2ed5f49956d0</t>
+  </si>
+  <si>
+    <t>d4271a3539d25971</t>
+  </si>
+  <si>
+    <t>2ac448af249c13ee</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.170901.4.4.b2619db377e3caa9211aa6c7577c0e0bb9704e086f862c6ab3573d95bc627520.a78bd3179f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3995,16 +3995,16 @@
         <v>56</v>
       </c>
       <c r="F10" s="23">
-        <v>45062</v>
+        <v>45085</v>
       </c>
       <c r="G10" s="33">
-        <v>0.44994212962962959</v>
+        <v>0.46768518518518515</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>71</v>
@@ -4041,16 +4041,16 @@
         <v>58</v>
       </c>
       <c r="F11" s="23">
-        <v>45062</v>
+        <v>45085</v>
       </c>
       <c r="G11" s="33">
-        <v>0.49157407407407411</v>
+        <v>0.48056712962962966</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>71</v>
@@ -4087,16 +4087,16 @@
         <v>60</v>
       </c>
       <c r="F12" s="23">
-        <v>45062</v>
+        <v>45085</v>
       </c>
       <c r="G12" s="33">
-        <v>0.79226851851851843</v>
+        <v>0.48173611111111114</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>71</v>
@@ -4133,16 +4133,16 @@
         <v>62</v>
       </c>
       <c r="F13" s="23">
-        <v>45063</v>
+        <v>45085</v>
       </c>
       <c r="G13" s="33">
-        <v>0.34218750000000003</v>
+        <v>0.4821064814814815</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>71</v>
@@ -4179,16 +4179,16 @@
         <v>64</v>
       </c>
       <c r="F14" s="23">
-        <v>45063</v>
+        <v>45085</v>
       </c>
       <c r="G14" s="33">
-        <v>0.42163194444444446</v>
+        <v>0.48247685185185185</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>71</v>
@@ -4225,16 +4225,16 @@
         <v>66</v>
       </c>
       <c r="F15" s="23">
-        <v>45063</v>
+        <v>45085</v>
       </c>
       <c r="G15" s="33">
-        <v>0.46696759259259263</v>
+        <v>0.51278935185185182</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>71</v>
@@ -4247,13 +4247,13 @@
         <v>71</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>71</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -4279,16 +4279,16 @@
         <v>68</v>
       </c>
       <c r="F16" s="23">
-        <v>45076</v>
+        <v>45085</v>
       </c>
       <c r="G16" s="33">
-        <v>0.40016203703703707</v>
+        <v>0.51723379629629629</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J16" s="34" t="s">
         <v>71</v>
@@ -4301,13 +4301,13 @@
         <v>71</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>71</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
@@ -4343,7 +4343,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="34" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26" t="s">
@@ -4378,7 +4378,7 @@
         <v>146</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -4416,7 +4416,7 @@
         <v>146</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -4454,7 +4454,7 @@
         <v>146</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -4492,7 +4492,7 @@
         <v>146</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -4530,7 +4530,7 @@
         <v>146</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -4568,7 +4568,7 @@
         <v>146</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -4606,7 +4606,7 @@
         <v>146</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -4644,7 +4644,7 @@
         <v>146</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -4675,16 +4675,16 @@
         <v>89</v>
       </c>
       <c r="F26" s="23">
-        <v>45064</v>
+        <v>45085</v>
       </c>
       <c r="G26" s="33">
-        <v>0.44621527777777775</v>
+        <v>0.52733796296296298</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>71</v>
@@ -4697,13 +4697,13 @@
         <v>71</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O26" s="25" t="s">
         <v>146</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -4736,7 +4736,7 @@
         <v>146</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -4774,7 +4774,7 @@
         <v>146</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>

--- a/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/WINGLA/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/WINGLA/1/report-checklist.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$28</definedName>
     <definedName name="filtro" localSheetId="2">TestCases!$A$9:$S$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhUlYP9yzNmk4f07XMJovPPUaqOhw=="/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="181">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -734,9 +734,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizzazione errore ( N.B. Errore registrato negli archivi per consultazione successiva ) </t>
-  </si>
-  <si>
     <t>Errore su validazione.
 Dettaglio: …</t>
   </si>
@@ -814,6 +811,38 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.170901.4.4.b2619db377e3caa9211aa6c7577c0e0bb9704e086f862c6ab3573d95bc627520.a78bd3179f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>L' applicativo ("GESTIONE Fascicolo Sanitario Elettronico" ) in questione effettua un 'operazione batch sui referti ( PDF con allegato CDA2 ) in precedenza generati dai medici di laboratorio. 
+L' applicativo esegue per ogni referto le seguenti fasi : 
+1) se attivato, richiama il servizio di validazione su GATEWAY , in caso di mancata validazione mostra il seguente testo di errore:  "Su Validazione CDA: " , con accodata la descrizione dell ' errore ricevuto dal GATEWAY.
+2) se validazione eseguita con successo, il referto clinico viene "passato" ( tramite evento ) ad un 'altra parte di applicativo ( servizio windows residente (nome serviziWINGLA ) che si occupa di inviare al repository aziendale il referto in modalità asincrona.
+Successivamente l' operatore  consulta il risultato del processo di elaborazione dell' applicativo , agisce nei seguenti modi se si tratta di errori di timeout :
+-Errore di timeout o mancato accesso al servizio di validazione GATEWAY:  L' operatore può rieseguire subito l' elaborazione per verificare se il servizio GATEWAY è nuovamente raggiungibile.
+-Errore di timeout o mancato invio al repository aziendale: in questo caso , il ns. servizio windows residente ( serviziWINGLA ) che si occupa dell' invio al repository aziendale in automatico ritenta l' invio dopo un tempo prestabilito dai parametri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L' applicativo ("GESTIONE Fascicolo Sanitario Elettronico" ) in questione effettua un 'operazione batch sui referti ( PDF con allegato CDA2 ) in precedenza generati dai medici di laboratorio. 
+L' applicativo esegue per ogni referto le seguenti fasi : 
+1) se attivato, richiama il servizio di validazione su GATEWAY , in caso di mancata validazione mostra il seguente testo di errore:  "Su Validazione CDA: " , con accodata la descrizione dell ' errore ricevuto dal GATEWAY.
+2) se validazione eseguita con successo, il referto clinico viene "passato" ( tramite evento ) ad un 'altra parte di applicativo ( servizio windows residente (nome serviziWINGLA ) che si occupa di inviare al repository aziendale il referto in modalità asincrona.
+Successivamente l' operatore  consulta il risultato del processo di elaborazione dell' applicativo , verifica eventuali errori e agisce nei seguenti modi a seconda del tipo di errore :
+-Errore è bloccante : si notifica al medico o personale di competenza di correggere la problematica e rigenerare il referto con firma.
+ Successivamente si deve rilanciare dall' applicativo (GESTIONE FSE) la procedura iniziale che riesegue le fasi 1 ( validazione ) e 2 (  invio al repository aziendale )
+-Errore di timeout o mancato accesso al servizio di validazione GATEWAY:  L' operatore ha la facoltà di rieseguire subito l' elaborazione per verificare se il servizio GATEWAY è nuovamente raggiungibile.
+-Errore di timeout o mancato invio al repository aziendale: in questo caso , il ns. servizio windows residente ( serviziWINGLA )  che si occupa dell' invio al repository aziendale in automatico ritenta l' invio dopo un tempo prestabilito dai parametri.
+</t>
+  </si>
+  <si>
+    <t>L' applicativo ("GESTIONE Fascicolo Sanitario Elettronico" ) in questione effettua un 'operazione batch sui referti ( PDF con allegato CDA2 ) in precedenza generati dai medici di laboratorio. 
+L' applicativo esegue per ogni referto le seguenti fasi : 
+1) se attivato, richiama il servizio di validazione su GATEWAY , in caso di mancata validazione mostra il seguente testo di errore:  "Su Validazione CDA: " , con accodata la descrizione dell ' errore ricevuto dal GATEWAY.
+2) se validazione eseguita con successo, il referto clinico viene "passato" ( tramite evento ) ad un 'altra parte di applicativo ( servizio windows residente (nome serviziWINGLA ) che si occupa di inviare al repository aziendale il referto in modalità asincrona.
+Successivamente l' operatore  consulta il risultato del processo di elaborazione dell' applicativo , verifica eventuali errori e agisce nei seguenti modi a seconda del tipo di errore :
+-Errore è bloccante : si notifica al medico o personale di competenza di correggere la problematica e rigenerare il referto con firma.
+ Successivamente si deve rilanciare dall' applicativo (GESTIONE FSE) la procedura iniziale che riesegue le fasi 1 ( validazione ) e 2 (  invio al repository aziendale )
+-Errore di timeout o mancato accesso al servizio di validazione GATEWAY:  L' operatore ha la facoltà di rieseguire subito l' elaborazione per verificare se il servizio GATEWAY è nuovamente raggiungibile.
+-Errore di timeout o mancato invio al repository aziendale: in questo caso , il ns. servizio windows residente ( serviziWINGLA )  che si occupa dell' invio al repository aziendale in automatico ritenta l' invio dopo un tempo prestabilito dai parametri.</t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3766,7 @@
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="52.42578125" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
@@ -4001,10 +4030,10 @@
         <v>0.46768518518518515</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>71</v>
@@ -4047,10 +4076,10 @@
         <v>0.48056712962962966</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>71</v>
@@ -4093,10 +4122,10 @@
         <v>0.48173611111111114</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>71</v>
@@ -4139,10 +4168,10 @@
         <v>0.4821064814814815</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>71</v>
@@ -4185,10 +4214,10 @@
         <v>0.48247685185185185</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>71</v>
@@ -4231,7 +4260,7 @@
         <v>0.51278935185185182</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>151</v>
@@ -4247,13 +4276,13 @@
         <v>71</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="34" t="s">
-        <v>152</v>
+      <c r="P15" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -4285,7 +4314,7 @@
         <v>0.51723379629629629</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>151</v>
@@ -4301,13 +4330,13 @@
         <v>71</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="34" t="s">
-        <v>152</v>
+      <c r="P16" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
@@ -4316,7 +4345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>44</v>
       </c>
@@ -4342,8 +4371,8 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
-      <c r="P17" s="34" t="s">
-        <v>152</v>
+      <c r="P17" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26" t="s">
@@ -4378,7 +4407,7 @@
         <v>146</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -4416,7 +4445,7 @@
         <v>146</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -4454,7 +4483,7 @@
         <v>146</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -4492,7 +4521,7 @@
         <v>146</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -4530,7 +4559,7 @@
         <v>146</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -4568,7 +4597,7 @@
         <v>146</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -4606,7 +4635,7 @@
         <v>146</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -4644,7 +4673,7 @@
         <v>146</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -4681,10 +4710,10 @@
         <v>0.52733796296296298</v>
       </c>
       <c r="H26" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>177</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>178</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>71</v>
@@ -4697,13 +4726,13 @@
         <v>71</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O26" s="25" t="s">
         <v>146</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -4736,7 +4765,7 @@
         <v>146</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -4774,7 +4803,7 @@
         <v>146</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
